--- a/biology/Botanique/Ficus_glomerata/Ficus_glomerata.xlsx
+++ b/biology/Botanique/Ficus_glomerata/Ficus_glomerata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus racemosa ou Ficus glomerata est une espèce de plante de la famille des Moraceae. Elle est originaire d'Australasie, d'Asie du Sud-Est et du sous-continent indien. Ses figues poussent directement sur tronc ou à proximité.
 			Ficus racemosa au Jardin botanique de la reine Sirikit, Thaïlande
 			Macaque à queue de lion Ouandérou mangeant des figues
 			Barbu rayé mangeant une figue
 Dans la tradition bouddhique, Ficus racemosa est connu sous le nom de "Udumbara".
-Ce figuier, pour être pollinisé, a besoin de la minuscule guêpe du figuier Ceratosolen fuscipeps et aussi d'interaction avec d'autres insectes comme la fourmi Oecophylla smaragdina et la punaise suceuse de sève Membracidae Tricentrus sp.[1]
+Ce figuier, pour être pollinisé, a besoin de la minuscule guêpe du figuier Ceratosolen fuscipeps et aussi d'interaction avec d'autres insectes comme la fourmi Oecophylla smaragdina et la punaise suceuse de sève Membracidae Tricentrus sp.
 </t>
         </is>
       </c>
